--- a/Code/Results/Cases/Case_7_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_35/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9883709844979485</v>
+        <v>0.9901427086223471</v>
       </c>
       <c r="D2">
-        <v>1.009461003800387</v>
+        <v>1.010888093396193</v>
       </c>
       <c r="E2">
-        <v>0.9958182953826948</v>
+        <v>0.9979380434834761</v>
       </c>
       <c r="F2">
-        <v>0.9977058722339593</v>
+        <v>0.9991973852446785</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041190794567186</v>
+        <v>1.041955520227151</v>
       </c>
       <c r="J2">
-        <v>1.010905169356411</v>
+        <v>1.012622300699061</v>
       </c>
       <c r="K2">
-        <v>1.020790086795308</v>
+        <v>1.022197795564904</v>
       </c>
       <c r="L2">
-        <v>1.007336197065379</v>
+        <v>1.009426179579326</v>
       </c>
       <c r="M2">
-        <v>1.00919726069879</v>
+        <v>1.010667913102313</v>
       </c>
       <c r="N2">
-        <v>1.012340770649341</v>
+        <v>1.014060340515456</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9957924433540897</v>
+        <v>0.9950428304474743</v>
       </c>
       <c r="D3">
-        <v>1.015176270769901</v>
+        <v>1.014571573572144</v>
       </c>
       <c r="E3">
-        <v>1.001994386482943</v>
+        <v>1.001862217787436</v>
       </c>
       <c r="F3">
-        <v>1.005514092513552</v>
+        <v>1.00488434801203</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043828008737804</v>
+        <v>1.043503716582735</v>
       </c>
       <c r="J3">
-        <v>1.016398471526681</v>
+        <v>1.015669551226479</v>
       </c>
       <c r="K3">
-        <v>1.025618582193923</v>
+        <v>1.025021342458424</v>
       </c>
       <c r="L3">
-        <v>1.012601812207009</v>
+        <v>1.012471326513391</v>
       </c>
       <c r="M3">
-        <v>1.016076902343516</v>
+        <v>1.015455111849014</v>
       </c>
       <c r="N3">
-        <v>1.017841873938782</v>
+        <v>1.017111918488147</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.000445379263933</v>
+        <v>0.9981414842691231</v>
       </c>
       <c r="D4">
-        <v>1.018760939614314</v>
+        <v>1.016900747220104</v>
       </c>
       <c r="E4">
-        <v>1.005872509725781</v>
+        <v>1.004350038737378</v>
       </c>
       <c r="F4">
-        <v>1.010413048494853</v>
+        <v>1.00848001822921</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045465583561166</v>
+        <v>1.044467459536966</v>
       </c>
       <c r="J4">
-        <v>1.019837699051966</v>
+        <v>1.017592850845283</v>
       </c>
       <c r="K4">
-        <v>1.028638089238611</v>
+        <v>1.026799386154152</v>
       </c>
       <c r="L4">
-        <v>1.015900571688857</v>
+        <v>1.014396244622573</v>
       </c>
       <c r="M4">
-        <v>1.020387400965353</v>
+        <v>1.018477163058646</v>
       </c>
       <c r="N4">
-        <v>1.021285985561639</v>
+        <v>1.019037949413015</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.002367793179243</v>
+        <v>0.9994275881543306</v>
       </c>
       <c r="D5">
-        <v>1.020242216881979</v>
+        <v>1.017867382309779</v>
       </c>
       <c r="E5">
-        <v>1.007476138229614</v>
+        <v>1.005384080468601</v>
       </c>
       <c r="F5">
-        <v>1.012437959694347</v>
+        <v>1.009972321965298</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046138297217423</v>
+        <v>1.044863746090954</v>
       </c>
       <c r="J5">
-        <v>1.021257430530372</v>
+        <v>1.01839020569076</v>
       </c>
       <c r="K5">
-        <v>1.029883690065452</v>
+        <v>1.027535525595846</v>
       </c>
       <c r="L5">
-        <v>1.017262804452201</v>
+        <v>1.015194974941355</v>
       </c>
       <c r="M5">
-        <v>1.022167656760731</v>
+        <v>1.019730241876034</v>
       </c>
       <c r="N5">
-        <v>1.02270773322159</v>
+        <v>1.01983643659383</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.002688656168762</v>
+        <v>0.9996425779974353</v>
       </c>
       <c r="D6">
-        <v>1.020489461699035</v>
+        <v>1.018028961192319</v>
       </c>
       <c r="E6">
-        <v>1.007743869891436</v>
+        <v>1.005557019405498</v>
       </c>
       <c r="F6">
-        <v>1.01277598026032</v>
+        <v>1.010221776997449</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.0462503478788</v>
+        <v>1.044929770768089</v>
       </c>
       <c r="J6">
-        <v>1.021494318813401</v>
+        <v>1.018523439621192</v>
       </c>
       <c r="K6">
-        <v>1.030091472062363</v>
+        <v>1.02765847159181</v>
       </c>
       <c r="L6">
-        <v>1.017490127159891</v>
+        <v>1.015328480071467</v>
       </c>
       <c r="M6">
-        <v>1.022464752364867</v>
+        <v>1.019939639168907</v>
       </c>
       <c r="N6">
-        <v>1.022944957913152</v>
+        <v>1.019969859731726</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.000471196416819</v>
+        <v>0.9981587334909822</v>
       </c>
       <c r="D7">
-        <v>1.018780831736975</v>
+        <v>1.016913712183645</v>
       </c>
       <c r="E7">
-        <v>1.005894040562728</v>
+        <v>1.004363901575464</v>
       </c>
       <c r="F7">
-        <v>1.010440238766771</v>
+        <v>1.008500033294156</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045474633208381</v>
+        <v>1.044472789290617</v>
       </c>
       <c r="J7">
-        <v>1.019856770337834</v>
+        <v>1.017603548630259</v>
       </c>
       <c r="K7">
-        <v>1.028654824896569</v>
+        <v>1.02680926660163</v>
       </c>
       <c r="L7">
-        <v>1.015918868678522</v>
+        <v>1.014406958078815</v>
       </c>
       <c r="M7">
-        <v>1.020411311699995</v>
+        <v>1.018493974194566</v>
       </c>
       <c r="N7">
-        <v>1.021305083930921</v>
+        <v>1.019048662390073</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9909112955996531</v>
+        <v>0.9918140684774789</v>
       </c>
       <c r="D8">
-        <v>1.011416919284777</v>
+        <v>1.01214445956993</v>
       </c>
       <c r="E8">
-        <v>0.9979310004742598</v>
+        <v>0.9992751626127081</v>
       </c>
       <c r="F8">
-        <v>1.000377823364399</v>
+        <v>1.001137269258672</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042096798862777</v>
+        <v>1.042486764743105</v>
       </c>
       <c r="J8">
-        <v>1.012786467473036</v>
+        <v>1.013662421665706</v>
       </c>
       <c r="K8">
-        <v>1.022444430430212</v>
+        <v>1.023162401382751</v>
       </c>
       <c r="L8">
-        <v>1.009139070804073</v>
+        <v>1.010464961241176</v>
       </c>
       <c r="M8">
-        <v>1.011552679223496</v>
+        <v>1.012301857515919</v>
       </c>
       <c r="N8">
-        <v>1.01422474042508</v>
+        <v>1.015101938573176</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9728197714295279</v>
+        <v>0.980049442161243</v>
       </c>
       <c r="D9">
-        <v>0.9974989295118333</v>
+        <v>1.00330324452181</v>
       </c>
       <c r="E9">
-        <v>0.9829152811615924</v>
+        <v>0.9898924244862282</v>
       </c>
       <c r="F9">
-        <v>0.9813639948987168</v>
+        <v>0.9874781513240294</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035578687765031</v>
+        <v>1.038684352946695</v>
       </c>
       <c r="J9">
-        <v>0.9993702437587456</v>
+        <v>1.006326924807571</v>
       </c>
       <c r="K9">
-        <v>1.010632715593534</v>
+        <v>1.016342955268444</v>
       </c>
       <c r="L9">
-        <v>0.9962917643759257</v>
+        <v>1.00315164672587</v>
       </c>
       <c r="M9">
-        <v>0.9947668423044239</v>
+        <v>1.000777707239182</v>
       </c>
       <c r="N9">
-        <v>1.000789464134252</v>
+        <v>1.007756024468109</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9597578913816524</v>
+        <v>0.9717640528591683</v>
       </c>
       <c r="D10">
-        <v>0.9874719569607385</v>
+        <v>0.9970829010843785</v>
       </c>
       <c r="E10">
-        <v>0.9721191031471798</v>
+        <v>0.9833243518567072</v>
       </c>
       <c r="F10">
-        <v>0.9676555241027548</v>
+        <v>0.9778504992872183</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03079185318016</v>
+        <v>1.0359285826679</v>
       </c>
       <c r="J10">
-        <v>0.98966440106224</v>
+        <v>1.001144532364413</v>
       </c>
       <c r="K10">
-        <v>1.002071154217362</v>
+        <v>1.011505025157865</v>
       </c>
       <c r="L10">
-        <v>0.9870106880833548</v>
+        <v>0.9980013621805262</v>
       </c>
       <c r="M10">
-        <v>0.9826344015353305</v>
+        <v>0.9926315269024951</v>
       </c>
       <c r="N10">
-        <v>0.991069838027842</v>
+        <v>1.002566272433253</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9538211230984517</v>
+        <v>0.9680593020043422</v>
       </c>
       <c r="D11">
-        <v>0.9829222009966572</v>
+        <v>0.994304112813139</v>
       </c>
       <c r="E11">
-        <v>0.9672249712656907</v>
+        <v>0.9803978712627532</v>
       </c>
       <c r="F11">
-        <v>0.9614293631036237</v>
+        <v>0.9735427671223693</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028598244271616</v>
+        <v>1.034678659070878</v>
       </c>
       <c r="J11">
-        <v>0.9852496969624186</v>
+        <v>0.9988239828299779</v>
       </c>
       <c r="K11">
-        <v>0.998173529514824</v>
+        <v>1.009334250604887</v>
       </c>
       <c r="L11">
-        <v>0.9827926258290386</v>
+        <v>0.9956991710487914</v>
       </c>
       <c r="M11">
-        <v>0.9771172614891288</v>
+        <v>0.9889814917101416</v>
       </c>
       <c r="N11">
-        <v>0.9866488645418251</v>
+        <v>1.000242427452309</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9515693975508371</v>
+        <v>0.9666644562261266</v>
       </c>
       <c r="D12">
-        <v>0.9811979307811226</v>
+        <v>0.9932583847314193</v>
       </c>
       <c r="E12">
-        <v>0.9653708424888793</v>
+        <v>0.979297690799575</v>
       </c>
       <c r="F12">
-        <v>0.9590685379509845</v>
+        <v>0.9719203927558232</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027763668310473</v>
+        <v>1.034205469992529</v>
       </c>
       <c r="J12">
-        <v>0.983574902450626</v>
+        <v>0.9979498506775862</v>
       </c>
       <c r="K12">
-        <v>0.9966944369733809</v>
+        <v>1.008515893306892</v>
       </c>
       <c r="L12">
-        <v>0.9811929772244162</v>
+        <v>0.9948325604978011</v>
       </c>
       <c r="M12">
-        <v>0.9750243035225293</v>
+        <v>0.9876060780914624</v>
       </c>
       <c r="N12">
-        <v>0.9849716916297239</v>
+        <v>0.9993670539319963</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9520545832827694</v>
+        <v>0.9669645226126355</v>
       </c>
       <c r="D13">
-        <v>0.981569397691054</v>
+        <v>0.993483323255119</v>
       </c>
       <c r="E13">
-        <v>0.9657702566826996</v>
+        <v>0.9795342915444241</v>
       </c>
       <c r="F13">
-        <v>0.959577202020469</v>
+        <v>0.9722694305155143</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02794361079325</v>
+        <v>1.034307380724218</v>
       </c>
       <c r="J13">
-        <v>0.9839357894081453</v>
+        <v>0.9981379175207395</v>
       </c>
       <c r="K13">
-        <v>0.9970131737654</v>
+        <v>1.008691989012472</v>
       </c>
       <c r="L13">
-        <v>0.9815376464636835</v>
+        <v>0.9950189815764756</v>
       </c>
       <c r="M13">
-        <v>0.9754752962571803</v>
+        <v>0.9879020175493338</v>
       </c>
       <c r="N13">
-        <v>0.9853330910881174</v>
+        <v>0.9995553878516382</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9536359716503201</v>
+        <v>0.9679443927696735</v>
       </c>
       <c r="D14">
-        <v>0.982780390848632</v>
+        <v>0.9942179537749738</v>
       </c>
       <c r="E14">
-        <v>0.967072468120547</v>
+        <v>0.9803072030203338</v>
       </c>
       <c r="F14">
-        <v>0.9612352274337768</v>
+        <v>0.9734091245565375</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02852967143866</v>
+        <v>1.034639729343437</v>
       </c>
       <c r="J14">
-        <v>0.9851119911061779</v>
+        <v>0.9987519793153284</v>
       </c>
       <c r="K14">
-        <v>0.9980519238124933</v>
+        <v>1.009266854269174</v>
       </c>
       <c r="L14">
-        <v>0.9826610874010953</v>
+        <v>0.9956277747389068</v>
       </c>
       <c r="M14">
-        <v>0.9769451726716434</v>
+        <v>0.988868207285618</v>
       </c>
       <c r="N14">
-        <v>0.9865109631274731</v>
+        <v>1.000170321684409</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9546040088317588</v>
+        <v>0.9685456046229908</v>
       </c>
       <c r="D15">
-        <v>0.9835218820384786</v>
+        <v>0.9946687635320537</v>
       </c>
       <c r="E15">
-        <v>0.9678698966781709</v>
+        <v>0.980781652103364</v>
       </c>
       <c r="F15">
-        <v>0.9622502641268093</v>
+        <v>0.9741083292053035</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028888090688433</v>
+        <v>1.034843306868105</v>
       </c>
       <c r="J15">
-        <v>0.9858319519749659</v>
+        <v>0.9991286882878593</v>
       </c>
       <c r="K15">
-        <v>0.9986876906104054</v>
+        <v>1.009619433270691</v>
       </c>
       <c r="L15">
-        <v>0.9833488257777087</v>
+        <v>0.9960013316626809</v>
       </c>
       <c r="M15">
-        <v>0.9778448981222353</v>
+        <v>0.9894608702164929</v>
       </c>
       <c r="N15">
-        <v>0.9872319464232758</v>
+        <v>1.00054756562689</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9601456202040323</v>
+        <v>0.9720073622033283</v>
       </c>
       <c r="D16">
-        <v>0.9877692770254304</v>
+        <v>0.9972654602251355</v>
       </c>
       <c r="E16">
-        <v>0.9724390201229389</v>
+        <v>0.9835167713623931</v>
       </c>
       <c r="F16">
-        <v>0.9680622449123139</v>
+        <v>0.9781333442542871</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030934756546386</v>
+        <v>1.036010308922615</v>
       </c>
       <c r="J16">
-        <v>0.9899526668049153</v>
+        <v>1.00129687044237</v>
       </c>
       <c r="K16">
-        <v>1.002325590230416</v>
+        <v>1.011647440282196</v>
       </c>
       <c r="L16">
-        <v>0.9872861871611149</v>
+        <v>0.9981525784947848</v>
       </c>
       <c r="M16">
-        <v>0.9829946690341816</v>
+        <v>0.992871083151208</v>
       </c>
       <c r="N16">
-        <v>0.9913585131409365</v>
+        <v>1.002718826848755</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9635436459369811</v>
+        <v>0.9741466991289208</v>
       </c>
       <c r="D17">
-        <v>0.9903758501063727</v>
+        <v>0.9988709473144356</v>
       </c>
       <c r="E17">
-        <v>0.9752442170183107</v>
+        <v>0.9852098403309461</v>
       </c>
       <c r="F17">
-        <v>0.9716272193574371</v>
+        <v>0.9806199773792533</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032185144517206</v>
+        <v>1.036726897970789</v>
       </c>
       <c r="J17">
-        <v>0.9924786491449167</v>
+        <v>1.002635961176966</v>
       </c>
       <c r="K17">
-        <v>1.004554756390627</v>
+        <v>1.01289880191689</v>
       </c>
       <c r="L17">
-        <v>0.9897006891325454</v>
+        <v>0.999482261369363</v>
       </c>
       <c r="M17">
-        <v>0.9861517127903487</v>
+        <v>0.9949765611069228</v>
       </c>
       <c r="N17">
-        <v>0.9938880826655945</v>
+        <v>1.00405981924579</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9654988794144965</v>
+        <v>0.9753833194639842</v>
       </c>
       <c r="D18">
-        <v>0.9918763761809142</v>
+        <v>0.9997992200155328</v>
       </c>
       <c r="E18">
-        <v>0.9768595244285</v>
+        <v>0.9861894774084201</v>
       </c>
       <c r="F18">
-        <v>0.9736789372470193</v>
+        <v>0.9820570895790385</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032902931713447</v>
+        <v>1.037139434397471</v>
       </c>
       <c r="J18">
-        <v>0.993931788851674</v>
+        <v>1.003409693869243</v>
       </c>
       <c r="K18">
-        <v>1.005836822939315</v>
+        <v>1.013621420083721</v>
       </c>
       <c r="L18">
-        <v>0.9910900165179782</v>
+        <v>1.000250934103196</v>
       </c>
       <c r="M18">
-        <v>0.9879680188942813</v>
+        <v>0.996192899534162</v>
       </c>
       <c r="N18">
-        <v>0.9953432859974132</v>
+        <v>1.004834650727237</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9661611436781506</v>
+        <v>0.9758031052197266</v>
       </c>
       <c r="D19">
-        <v>0.9923847364173151</v>
+        <v>1.000114370950764</v>
       </c>
       <c r="E19">
-        <v>0.9774068470471955</v>
+        <v>0.986522190381841</v>
       </c>
       <c r="F19">
-        <v>0.9743739539216684</v>
+        <v>0.9825448931936656</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033145766060885</v>
+        <v>1.037279187902912</v>
       </c>
       <c r="J19">
-        <v>0.9944239296492547</v>
+        <v>1.003672292024298</v>
       </c>
       <c r="K19">
-        <v>1.006270969757489</v>
+        <v>1.013866597664149</v>
       </c>
       <c r="L19">
-        <v>0.9915605991562172</v>
+        <v>1.000511878499627</v>
       </c>
       <c r="M19">
-        <v>0.9885831806095072</v>
+        <v>0.9966056809273425</v>
       </c>
       <c r="N19">
-        <v>0.9958361256913757</v>
+        <v>1.005097621801794</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9631818690866878</v>
+        <v>0.973918336858168</v>
       </c>
       <c r="D20">
-        <v>0.9900982626368435</v>
+        <v>0.998699545082242</v>
       </c>
       <c r="E20">
-        <v>0.9749454316838719</v>
+        <v>0.9850290126727782</v>
       </c>
       <c r="F20">
-        <v>0.9712476242465569</v>
+        <v>0.980354570626769</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032052194593772</v>
+        <v>1.03665057999153</v>
       </c>
       <c r="J20">
-        <v>0.9922097480974422</v>
+        <v>1.002493052956527</v>
       </c>
       <c r="K20">
-        <v>1.004317485738923</v>
+        <v>1.012765300030629</v>
       </c>
       <c r="L20">
-        <v>0.9894436221700607</v>
+        <v>0.9993403180774204</v>
       </c>
       <c r="M20">
-        <v>0.9858156199248136</v>
+        <v>0.9947518870458302</v>
       </c>
       <c r="N20">
-        <v>0.9936187997477895</v>
+        <v>1.003916708079285</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9531716151341013</v>
+        <v>0.9676563722900947</v>
       </c>
       <c r="D21">
-        <v>0.9824247566204682</v>
+        <v>0.9940020040455516</v>
       </c>
       <c r="E21">
-        <v>0.966690028126448</v>
+        <v>0.9800799694758768</v>
       </c>
       <c r="F21">
-        <v>0.9607483492524298</v>
+        <v>0.9730741404704351</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028357651078947</v>
+        <v>1.034542110348386</v>
       </c>
       <c r="J21">
-        <v>0.9847666218934055</v>
+        <v>0.9985714952876028</v>
       </c>
       <c r="K21">
-        <v>0.9977469268949253</v>
+        <v>1.009097908320032</v>
       </c>
       <c r="L21">
-        <v>0.982331195119978</v>
+        <v>0.9954488225182211</v>
       </c>
       <c r="M21">
-        <v>0.9765135708272662</v>
+        <v>0.988584240452797</v>
       </c>
       <c r="N21">
-        <v>0.9861651034508043</v>
+        <v>0.9999895813486628</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9466058348701144</v>
+        <v>0.9636101862888958</v>
       </c>
       <c r="D22">
-        <v>0.9773999016600931</v>
+        <v>0.9909695928251853</v>
       </c>
       <c r="E22">
-        <v>0.9612879270402881</v>
+        <v>0.9768917704850389</v>
       </c>
       <c r="F22">
-        <v>0.9538656899752154</v>
+        <v>0.9683668771374001</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025919375913284</v>
+        <v>1.033164647532784</v>
       </c>
       <c r="J22">
-        <v>0.9798825752847996</v>
+        <v>0.9960350271411464</v>
       </c>
       <c r="K22">
-        <v>0.9934327709540293</v>
+        <v>1.006722091891768</v>
       </c>
       <c r="L22">
-        <v>0.9776673663265916</v>
+        <v>0.9929353387477442</v>
       </c>
       <c r="M22">
-        <v>0.9704100334598007</v>
+        <v>0.9845921631742549</v>
       </c>
       <c r="N22">
-        <v>0.9812741209358063</v>
+        <v>0.9974495111265014</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9501138786087209</v>
+        <v>0.965765888490942</v>
       </c>
       <c r="D23">
-        <v>0.9800837820478391</v>
+        <v>0.9925848722199292</v>
       </c>
       <c r="E23">
-        <v>0.9641729628790178</v>
+        <v>0.9785894228541669</v>
       </c>
       <c r="F23">
-        <v>0.9575426818562039</v>
+        <v>0.9708750961704066</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027223487899881</v>
+        <v>1.033899917709518</v>
       </c>
       <c r="J23">
-        <v>0.9824922274674694</v>
+        <v>0.9973866121990854</v>
       </c>
       <c r="K23">
-        <v>0.9957381506280429</v>
+        <v>1.007988414724467</v>
       </c>
       <c r="L23">
-        <v>0.9801590386850478</v>
+        <v>0.9942743403958909</v>
       </c>
       <c r="M23">
-        <v>0.9736713061343348</v>
+        <v>0.9867196943661455</v>
       </c>
       <c r="N23">
-        <v>0.9838874791239068</v>
+        <v>0.9988030155902515</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9633454229017375</v>
+        <v>0.9740215585238224</v>
       </c>
       <c r="D24">
-        <v>0.9902237535647539</v>
+        <v>0.9987770195997391</v>
       </c>
       <c r="E24">
-        <v>0.9750805043110693</v>
+        <v>0.9851107452695148</v>
       </c>
       <c r="F24">
-        <v>0.971419232115083</v>
+        <v>0.9804745375063688</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032112304493241</v>
+        <v>1.036685081576339</v>
       </c>
       <c r="J24">
-        <v>0.9923313151702224</v>
+        <v>1.002557649651434</v>
       </c>
       <c r="K24">
-        <v>1.004424754076624</v>
+        <v>1.012825646237361</v>
       </c>
       <c r="L24">
-        <v>0.9895598381972626</v>
+        <v>0.999404477444119</v>
       </c>
       <c r="M24">
-        <v>0.9859675632287924</v>
+        <v>0.9948534438097526</v>
       </c>
       <c r="N24">
-        <v>0.9937405394597572</v>
+        <v>1.003981396508909</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9776600836565342</v>
+        <v>0.983164992601831</v>
       </c>
       <c r="D25">
-        <v>1.001219683050316</v>
+        <v>1.005643892759831</v>
       </c>
       <c r="E25">
-        <v>0.9869256745264947</v>
+        <v>0.9923706402309325</v>
       </c>
       <c r="F25">
-        <v>0.98644776818388</v>
+        <v>0.9910965197529314</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037336666139062</v>
+        <v>1.039704943033157</v>
       </c>
       <c r="J25">
-        <v>1.002963395524309</v>
+        <v>1.008272515064864</v>
       </c>
       <c r="K25">
-        <v>1.013799094470999</v>
+        <v>1.018155221828092</v>
       </c>
       <c r="L25">
-        <v>0.999730400908353</v>
+        <v>1.005088558120372</v>
       </c>
       <c r="M25">
-        <v>0.9992601724598257</v>
+        <v>1.003834641292839</v>
       </c>
       <c r="N25">
-        <v>1.004387718587463</v>
+        <v>1.00970437768673</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_35/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9901427086223471</v>
+        <v>0.9914907366494834</v>
       </c>
       <c r="D2">
-        <v>1.010888093396193</v>
+        <v>1.01188240512702</v>
       </c>
       <c r="E2">
-        <v>0.9979380434834761</v>
+        <v>0.99915665957582</v>
       </c>
       <c r="F2">
-        <v>0.9991973852446785</v>
+        <v>1.021954635552237</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041955520227151</v>
+        <v>1.043604200207236</v>
       </c>
       <c r="J2">
-        <v>1.012622300699061</v>
+        <v>1.013928971638391</v>
       </c>
       <c r="K2">
-        <v>1.022197795564904</v>
+        <v>1.023178644521168</v>
       </c>
       <c r="L2">
-        <v>1.009426179579326</v>
+        <v>1.01062775598674</v>
       </c>
       <c r="M2">
-        <v>1.010667913102313</v>
+        <v>1.033116351465169</v>
       </c>
       <c r="N2">
-        <v>1.014060340515456</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.008683890188004</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.034781738279159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9950428304474743</v>
+        <v>0.9952151674436653</v>
       </c>
       <c r="D3">
-        <v>1.014571573572144</v>
+        <v>1.014473239979045</v>
       </c>
       <c r="E3">
-        <v>1.001862217787436</v>
+        <v>1.002061077590509</v>
       </c>
       <c r="F3">
-        <v>1.00488434801203</v>
+        <v>1.02470078168001</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043503716582735</v>
+        <v>1.044475923284322</v>
       </c>
       <c r="J3">
-        <v>1.015669551226479</v>
+        <v>1.015837127202135</v>
       </c>
       <c r="K3">
-        <v>1.025021342458424</v>
+        <v>1.024924222615927</v>
       </c>
       <c r="L3">
-        <v>1.012471326513391</v>
+        <v>1.012667654297808</v>
       </c>
       <c r="M3">
-        <v>1.015455111849014</v>
+        <v>1.035027073032438</v>
       </c>
       <c r="N3">
-        <v>1.017111918488147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.009321592841699</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.036293956795555</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9981414842691231</v>
+        <v>0.9975803181475932</v>
       </c>
       <c r="D4">
-        <v>1.016900747220104</v>
+        <v>1.016118584528723</v>
       </c>
       <c r="E4">
-        <v>1.004350038737378</v>
+        <v>1.003911425103456</v>
       </c>
       <c r="F4">
-        <v>1.00848001822921</v>
+        <v>1.026450968582583</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044467459536966</v>
+        <v>1.045015275655991</v>
       </c>
       <c r="J4">
-        <v>1.017592850845283</v>
+        <v>1.017046122814336</v>
       </c>
       <c r="K4">
-        <v>1.026799386154152</v>
+        <v>1.026026288200458</v>
       </c>
       <c r="L4">
-        <v>1.014396244622573</v>
+        <v>1.013962870792979</v>
       </c>
       <c r="M4">
-        <v>1.018477163058646</v>
+        <v>1.036240300445525</v>
       </c>
       <c r="N4">
-        <v>1.019037949413015</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.009725544639963</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.037254149945971</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9994275881543306</v>
+        <v>0.9985642105483604</v>
       </c>
       <c r="D5">
-        <v>1.017867382309779</v>
+        <v>1.016803005448008</v>
       </c>
       <c r="E5">
-        <v>1.005384080468601</v>
+        <v>1.004682551028687</v>
       </c>
       <c r="F5">
-        <v>1.009972321965298</v>
+        <v>1.027180499305653</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044863746090954</v>
+        <v>1.045236177952704</v>
       </c>
       <c r="J5">
-        <v>1.01839020569076</v>
+        <v>1.017548368480171</v>
       </c>
       <c r="K5">
-        <v>1.027535525595846</v>
+        <v>1.026483151820919</v>
       </c>
       <c r="L5">
-        <v>1.015194974941355</v>
+        <v>1.014501597885352</v>
       </c>
       <c r="M5">
-        <v>1.019730241876034</v>
+        <v>1.036744921806472</v>
       </c>
       <c r="N5">
-        <v>1.01983643659383</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.009893332046428</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.0376535256165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9996425779974353</v>
+        <v>0.9987288083119834</v>
       </c>
       <c r="D6">
-        <v>1.018028961192319</v>
+        <v>1.016917500336545</v>
       </c>
       <c r="E6">
-        <v>1.005557019405498</v>
+        <v>1.004811635253044</v>
       </c>
       <c r="F6">
-        <v>1.010221776997449</v>
+        <v>1.02730262880238</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044929770768089</v>
+        <v>1.045272927969766</v>
       </c>
       <c r="J6">
-        <v>1.018523439621192</v>
+        <v>1.017632348872259</v>
       </c>
       <c r="K6">
-        <v>1.02765847159181</v>
+        <v>1.026559486828017</v>
       </c>
       <c r="L6">
-        <v>1.015328480071467</v>
+        <v>1.014591717428518</v>
       </c>
       <c r="M6">
-        <v>1.019939639168907</v>
+        <v>1.036829335546953</v>
       </c>
       <c r="N6">
-        <v>1.019969859731726</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.009921386296628</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.03772033369439</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9981587334909822</v>
+        <v>0.9975935054962889</v>
       </c>
       <c r="D7">
-        <v>1.016913712183645</v>
+        <v>1.01612775819522</v>
       </c>
       <c r="E7">
-        <v>1.004363901575464</v>
+        <v>1.003921755249667</v>
       </c>
       <c r="F7">
-        <v>1.008500033294156</v>
+        <v>1.026460740952996</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044472789290617</v>
+        <v>1.045018250219455</v>
       </c>
       <c r="J7">
-        <v>1.017603548630259</v>
+        <v>1.017052857304559</v>
       </c>
       <c r="K7">
-        <v>1.02680926660163</v>
+        <v>1.026032417996175</v>
       </c>
       <c r="L7">
-        <v>1.014406958078815</v>
+        <v>1.013970091828462</v>
       </c>
       <c r="M7">
-        <v>1.018493974194566</v>
+        <v>1.036247064359681</v>
       </c>
       <c r="N7">
-        <v>1.019048662390073</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.00972779455679</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.037259503154748</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9918140684774789</v>
+        <v>0.9927588932119581</v>
       </c>
       <c r="D8">
-        <v>1.01214445956993</v>
+        <v>1.012764529547535</v>
       </c>
       <c r="E8">
-        <v>0.9992751626127081</v>
+        <v>1.000144339907731</v>
       </c>
       <c r="F8">
-        <v>1.001137269258672</v>
+        <v>1.022888344310658</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042486764743105</v>
+        <v>1.0439039655766</v>
       </c>
       <c r="J8">
-        <v>1.013662421665706</v>
+        <v>1.01457925024023</v>
       </c>
       <c r="K8">
-        <v>1.023162401382751</v>
+        <v>1.023774329185839</v>
       </c>
       <c r="L8">
-        <v>1.010464961241176</v>
+        <v>1.011322356372295</v>
       </c>
       <c r="M8">
-        <v>1.012301857515919</v>
+        <v>1.033766953028833</v>
       </c>
       <c r="N8">
-        <v>1.015101938573176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.008901230766273</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.035296649735394</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.980049442161243</v>
+        <v>0.9838819572409753</v>
       </c>
       <c r="D9">
-        <v>1.00330324452181</v>
+        <v>1.006592235417441</v>
       </c>
       <c r="E9">
-        <v>0.9898924244862282</v>
+        <v>0.9932572843294282</v>
       </c>
       <c r="F9">
-        <v>0.9874781513240294</v>
+        <v>1.016381083019157</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038684352946695</v>
+        <v>1.041747667792598</v>
       </c>
       <c r="J9">
-        <v>1.006326924807571</v>
+        <v>1.010017011692516</v>
       </c>
       <c r="K9">
-        <v>1.016342955268444</v>
+        <v>1.019579256031857</v>
       </c>
       <c r="L9">
-        <v>1.00315164672587</v>
+        <v>1.006460712951781</v>
       </c>
       <c r="M9">
-        <v>1.000777707239182</v>
+        <v>1.029213863993825</v>
       </c>
       <c r="N9">
-        <v>1.007756024468109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.007376079556386</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.031693149557067</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9717640528591683</v>
+        <v>0.9777515493741904</v>
       </c>
       <c r="D10">
-        <v>0.9970829010843785</v>
+        <v>1.00233906740772</v>
       </c>
       <c r="E10">
-        <v>0.9833243518567072</v>
+        <v>0.9885423517425507</v>
       </c>
       <c r="F10">
-        <v>0.9778504992872183</v>
+        <v>1.012103227463771</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.0359285826679</v>
+        <v>1.04021100182767</v>
       </c>
       <c r="J10">
-        <v>1.001144532364413</v>
+        <v>1.006876565574978</v>
       </c>
       <c r="K10">
-        <v>1.011505025157865</v>
+        <v>1.016666217308772</v>
       </c>
       <c r="L10">
-        <v>0.9980013621805262</v>
+        <v>1.003121605643603</v>
       </c>
       <c r="M10">
-        <v>0.9926315269024951</v>
+        <v>1.02625733969945</v>
       </c>
       <c r="N10">
-        <v>1.002566272433253</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.006330066330786</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.029405236814579</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9680593020043422</v>
+        <v>0.9754054660488111</v>
       </c>
       <c r="D11">
-        <v>0.994304112813139</v>
+        <v>1.000735841059295</v>
       </c>
       <c r="E11">
-        <v>0.9803978712627532</v>
+        <v>0.9867943756458543</v>
       </c>
       <c r="F11">
-        <v>0.9735427671223693</v>
+        <v>1.011879300862929</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034678659070878</v>
+        <v>1.039782909008981</v>
       </c>
       <c r="J11">
-        <v>0.9988239828299779</v>
+        <v>1.005838448418602</v>
       </c>
       <c r="K11">
-        <v>1.009334250604887</v>
+        <v>1.015643893824726</v>
       </c>
       <c r="L11">
-        <v>0.9956991710487914</v>
+        <v>1.001969702912074</v>
       </c>
       <c r="M11">
-        <v>0.9889814917101416</v>
+        <v>1.026580615066525</v>
       </c>
       <c r="N11">
-        <v>1.000242427452309</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.006019962208701</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.030101542355298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9666644562261266</v>
+        <v>0.9746294399603862</v>
       </c>
       <c r="D12">
-        <v>0.9932583847314193</v>
+        <v>1.000202953437563</v>
       </c>
       <c r="E12">
-        <v>0.979297690799575</v>
+        <v>0.9862349723385496</v>
       </c>
       <c r="F12">
-        <v>0.9719203927558232</v>
+        <v>1.012348053333213</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034205469992529</v>
+        <v>1.039695612844951</v>
       </c>
       <c r="J12">
-        <v>0.9979498506775862</v>
+        <v>1.005547737951973</v>
       </c>
       <c r="K12">
-        <v>1.008515893306892</v>
+        <v>1.015326266212544</v>
       </c>
       <c r="L12">
-        <v>0.9948325604978011</v>
+        <v>1.001630726991821</v>
       </c>
       <c r="M12">
-        <v>0.9876060780914624</v>
+        <v>1.0272424470626</v>
       </c>
       <c r="N12">
-        <v>0.9993670539319963</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.0059520807766</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.030954104617572</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9669645226126355</v>
+        <v>0.9750131095905634</v>
       </c>
       <c r="D13">
-        <v>0.993483323255119</v>
+        <v>1.000461507281898</v>
       </c>
       <c r="E13">
-        <v>0.9795342915444241</v>
+        <v>0.9865528938835009</v>
       </c>
       <c r="F13">
-        <v>0.9722694305155143</v>
+        <v>1.013403180377082</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034307380724218</v>
+        <v>1.039872830582881</v>
       </c>
       <c r="J13">
-        <v>0.9981379175207395</v>
+        <v>1.005817295945637</v>
       </c>
       <c r="K13">
-        <v>1.008691989012472</v>
+        <v>1.015535866665923</v>
       </c>
       <c r="L13">
-        <v>0.9950189815764756</v>
+        <v>1.001897417640904</v>
       </c>
       <c r="M13">
-        <v>0.9879020175493338</v>
+        <v>1.028234836716679</v>
       </c>
       <c r="N13">
-        <v>0.9995553878516382</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.006067487431636</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.032017313544309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9679443927696735</v>
+        <v>0.9758016703365585</v>
       </c>
       <c r="D14">
-        <v>0.9942179537749738</v>
+        <v>1.000996352961368</v>
       </c>
       <c r="E14">
-        <v>0.9803072030203338</v>
+        <v>0.9871681270460998</v>
       </c>
       <c r="F14">
-        <v>0.9734091245565375</v>
+        <v>1.014393045132103</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034639729343437</v>
+        <v>1.040112267051147</v>
       </c>
       <c r="J14">
-        <v>0.9987519793153284</v>
+        <v>1.00625411527492</v>
       </c>
       <c r="K14">
-        <v>1.009266854269174</v>
+        <v>1.01591644818342</v>
       </c>
       <c r="L14">
-        <v>0.9956277747389068</v>
+        <v>1.002353452468931</v>
       </c>
       <c r="M14">
-        <v>0.988868207285618</v>
+        <v>1.02906515991059</v>
       </c>
       <c r="N14">
-        <v>1.000170321684409</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.006229244629185</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.03284794569655</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9685456046229908</v>
+        <v>0.9762524410396581</v>
       </c>
       <c r="D15">
-        <v>0.9946687635320537</v>
+        <v>1.001305514851357</v>
       </c>
       <c r="E15">
-        <v>0.980781652103364</v>
+        <v>0.9875150547966827</v>
       </c>
       <c r="F15">
-        <v>0.9741083292053035</v>
+        <v>1.014794414719932</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034843306868105</v>
+        <v>1.040234210716873</v>
       </c>
       <c r="J15">
-        <v>0.9991286882878593</v>
+        <v>1.006490341562707</v>
       </c>
       <c r="K15">
-        <v>1.009619433270691</v>
+        <v>1.016131062056376</v>
       </c>
       <c r="L15">
-        <v>0.9960013316626809</v>
+        <v>1.002603061940533</v>
       </c>
       <c r="M15">
-        <v>0.9894608702164929</v>
+        <v>1.029372212323083</v>
       </c>
       <c r="N15">
-        <v>1.00054756562689</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.006311327236121</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.033128357073217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9720073622033283</v>
+        <v>0.97877247196294</v>
       </c>
       <c r="D16">
-        <v>0.9972654602251355</v>
+        <v>1.003057909965562</v>
       </c>
       <c r="E16">
-        <v>0.9835167713623931</v>
+        <v>0.9894416708752704</v>
       </c>
       <c r="F16">
-        <v>0.9781333442542871</v>
+        <v>1.016453855603859</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036010308922615</v>
+        <v>1.040870753585688</v>
       </c>
       <c r="J16">
-        <v>1.00129687044237</v>
+        <v>1.007774799592975</v>
       </c>
       <c r="K16">
-        <v>1.011647440282196</v>
+        <v>1.017335655415374</v>
       </c>
       <c r="L16">
-        <v>0.9981525784947848</v>
+        <v>1.003966965366058</v>
       </c>
       <c r="M16">
-        <v>0.992871083151208</v>
+        <v>1.030496427883529</v>
       </c>
       <c r="N16">
-        <v>1.002718826848755</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.006734138506624</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.033978023297339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9741466991289208</v>
+        <v>0.9802968642873149</v>
       </c>
       <c r="D17">
-        <v>0.9988709473144356</v>
+        <v>1.004125706763021</v>
       </c>
       <c r="E17">
-        <v>0.9852098403309461</v>
+        <v>0.9906027014200337</v>
       </c>
       <c r="F17">
-        <v>0.9806199773792533</v>
+        <v>1.017206246982831</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036726897970789</v>
+        <v>1.041232154530366</v>
       </c>
       <c r="J17">
-        <v>1.002635961176966</v>
+        <v>1.008533843654053</v>
       </c>
       <c r="K17">
-        <v>1.01289880191689</v>
+        <v>1.018061782040258</v>
       </c>
       <c r="L17">
-        <v>0.999482261369363</v>
+        <v>1.004777530305177</v>
       </c>
       <c r="M17">
-        <v>0.9949765611069228</v>
+        <v>1.030919167489251</v>
       </c>
       <c r="N17">
-        <v>1.00405981924579</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.006974491461225</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.034182451979996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9753833194639842</v>
+        <v>0.9810912159042495</v>
       </c>
       <c r="D18">
-        <v>0.9997992200155328</v>
+        <v>1.004686036982451</v>
       </c>
       <c r="E18">
-        <v>0.9861894774084201</v>
+        <v>0.9911950090656787</v>
       </c>
       <c r="F18">
-        <v>0.9820570895790385</v>
+        <v>1.017139190272828</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037139434397471</v>
+        <v>1.041374360348619</v>
       </c>
       <c r="J18">
-        <v>1.003409693869243</v>
+        <v>1.008888111138737</v>
       </c>
       <c r="K18">
-        <v>1.013621420083721</v>
+        <v>1.0184243706122</v>
       </c>
       <c r="L18">
-        <v>1.000250934103196</v>
+        <v>1.005167478920105</v>
       </c>
       <c r="M18">
-        <v>0.996192899534162</v>
+        <v>1.030668494713666</v>
       </c>
       <c r="N18">
-        <v>1.004834650727237</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.007071488435459</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.0337451343209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9758031052197266</v>
+        <v>0.9811881354725797</v>
       </c>
       <c r="D19">
-        <v>1.000114370950764</v>
+        <v>1.004751398527982</v>
       </c>
       <c r="E19">
-        <v>0.986522190381841</v>
+        <v>0.9912401853112844</v>
       </c>
       <c r="F19">
-        <v>0.9825448931936656</v>
+        <v>1.016260000734058</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037279187902912</v>
+        <v>1.041295911275491</v>
       </c>
       <c r="J19">
-        <v>1.003672292024298</v>
+        <v>1.008842258838682</v>
       </c>
       <c r="K19">
-        <v>1.013866597664149</v>
+        <v>1.018424511525631</v>
       </c>
       <c r="L19">
-        <v>1.000511878499627</v>
+        <v>1.00514649165101</v>
       </c>
       <c r="M19">
-        <v>0.9966056809273425</v>
+        <v>1.029740775290028</v>
       </c>
       <c r="N19">
-        <v>1.005097621801794</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.007028840860898</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.032683634587471</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.973918336858168</v>
+        <v>0.979341764624278</v>
       </c>
       <c r="D20">
-        <v>0.998699545082242</v>
+        <v>1.003441967765919</v>
       </c>
       <c r="E20">
-        <v>0.9850290126727782</v>
+        <v>0.9897629514133098</v>
       </c>
       <c r="F20">
-        <v>0.980354570626769</v>
+        <v>1.013218303095865</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03665057999153</v>
+        <v>1.040615661591756</v>
       </c>
       <c r="J20">
-        <v>1.002493052956527</v>
+        <v>1.007692927620776</v>
       </c>
       <c r="K20">
-        <v>1.012765300030629</v>
+        <v>1.017424563128488</v>
       </c>
       <c r="L20">
-        <v>0.9993403180774204</v>
+        <v>1.003988227527643</v>
       </c>
       <c r="M20">
-        <v>0.9947518870458302</v>
+        <v>1.027032639580666</v>
       </c>
       <c r="N20">
-        <v>1.003916708079285</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.006602173396071</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.030008146110729</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9676563722900947</v>
+        <v>0.9746612247637101</v>
       </c>
       <c r="D21">
-        <v>0.9940020040455516</v>
+        <v>1.000191689801674</v>
       </c>
       <c r="E21">
-        <v>0.9800799694758768</v>
+        <v>0.9861667039918135</v>
       </c>
       <c r="F21">
-        <v>0.9730741404704351</v>
+        <v>1.009690816139736</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034542110348386</v>
+        <v>1.039383165887252</v>
       </c>
       <c r="J21">
-        <v>0.9985714952876028</v>
+        <v>1.00525792546557</v>
       </c>
       <c r="K21">
-        <v>1.009097908320032</v>
+        <v>1.01516943147108</v>
       </c>
       <c r="L21">
-        <v>0.9954488225182211</v>
+        <v>1.001414978781169</v>
       </c>
       <c r="M21">
-        <v>0.988584240452797</v>
+        <v>1.024490889863074</v>
       </c>
       <c r="N21">
-        <v>0.9999895813486628</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.005784536620978</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.027955175728055</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9636101862888958</v>
+        <v>0.9716813639936075</v>
       </c>
       <c r="D22">
-        <v>0.9909695928251853</v>
+        <v>0.9981267259781628</v>
       </c>
       <c r="E22">
-        <v>0.9768917704850389</v>
+        <v>0.9838884706006289</v>
       </c>
       <c r="F22">
-        <v>0.9683668771374001</v>
+        <v>1.007543441257114</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033164647532784</v>
+        <v>1.03859625228664</v>
       </c>
       <c r="J22">
-        <v>0.9960350271411464</v>
+        <v>1.003716848115132</v>
       </c>
       <c r="K22">
-        <v>1.006722091891768</v>
+        <v>1.013735384358548</v>
       </c>
       <c r="L22">
-        <v>0.9929353387477442</v>
+        <v>0.9997860023294797</v>
       </c>
       <c r="M22">
-        <v>0.9845921631742549</v>
+        <v>1.022966927784943</v>
       </c>
       <c r="N22">
-        <v>0.9974495111265014</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.005269092143698</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.02674903938233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.965765888490942</v>
+        <v>0.9732670276850944</v>
       </c>
       <c r="D23">
-        <v>0.9925848722199292</v>
+        <v>0.9992253042297362</v>
       </c>
       <c r="E23">
-        <v>0.9785894228541669</v>
+        <v>0.9850999885279597</v>
       </c>
       <c r="F23">
-        <v>0.9708750961704066</v>
+        <v>1.008685228797052</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033899917709518</v>
+        <v>1.039016258217603</v>
       </c>
       <c r="J23">
-        <v>0.9973866121990854</v>
+        <v>1.004537049010971</v>
       </c>
       <c r="K23">
-        <v>1.007988414724467</v>
+        <v>1.014498955896992</v>
       </c>
       <c r="L23">
-        <v>0.9942743403958909</v>
+        <v>1.000652703607494</v>
       </c>
       <c r="M23">
-        <v>0.9867196943661455</v>
+        <v>1.023777698806942</v>
       </c>
       <c r="N23">
-        <v>0.9988030155902515</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.005543428031267</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.027390722540692</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9740215585238224</v>
+        <v>0.979379784689031</v>
       </c>
       <c r="D24">
-        <v>0.9987770195997391</v>
+        <v>1.003465247682683</v>
       </c>
       <c r="E24">
-        <v>0.9851107452695148</v>
+        <v>0.9897873654360445</v>
       </c>
       <c r="F24">
-        <v>0.9804745375063688</v>
+        <v>1.013105799407735</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036685081576339</v>
+        <v>1.040607320302486</v>
       </c>
       <c r="J24">
-        <v>1.002557649651434</v>
+        <v>1.007695367962263</v>
       </c>
       <c r="K24">
-        <v>1.012825646237361</v>
+        <v>1.017431781745547</v>
       </c>
       <c r="L24">
-        <v>0.999404477444119</v>
+        <v>1.003996231855928</v>
       </c>
       <c r="M24">
-        <v>0.9948534438097526</v>
+        <v>1.026906606189999</v>
       </c>
       <c r="N24">
-        <v>1.003981396508909</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.006599724546009</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.02986708463393</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.983164992601831</v>
+        <v>0.9862213872691005</v>
       </c>
       <c r="D25">
-        <v>1.005643892759831</v>
+        <v>1.008218180539413</v>
       </c>
       <c r="E25">
-        <v>0.9923706402309325</v>
+        <v>0.9950663614784114</v>
       </c>
       <c r="F25">
-        <v>0.9910965197529314</v>
+        <v>1.0180895903226</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039704943033157</v>
+        <v>1.042328488388202</v>
       </c>
       <c r="J25">
-        <v>1.008272515064864</v>
+        <v>1.011221523773018</v>
       </c>
       <c r="K25">
-        <v>1.018155221828092</v>
+        <v>1.020690245472675</v>
       </c>
       <c r="L25">
-        <v>1.005088558120372</v>
+        <v>1.00774175169983</v>
       </c>
       <c r="M25">
-        <v>1.003834641292839</v>
+        <v>1.030413432040338</v>
       </c>
       <c r="N25">
-        <v>1.00970437768673</v>
+        <v>1.007778813809824</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.032642538380776</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_35/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9914907366494834</v>
+        <v>0.9923327594157496</v>
       </c>
       <c r="D2">
-        <v>1.01188240512702</v>
+        <v>1.012667702809451</v>
       </c>
       <c r="E2">
-        <v>0.99915665957582</v>
+        <v>0.9998837375434423</v>
       </c>
       <c r="F2">
-        <v>1.021954635552237</v>
+        <v>1.022323354065496</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.043604200207236</v>
+        <v>1.044001143343984</v>
       </c>
       <c r="J2">
-        <v>1.013928971638391</v>
+        <v>1.014745239992853</v>
       </c>
       <c r="K2">
-        <v>1.023178644521168</v>
+        <v>1.023953332931355</v>
       </c>
       <c r="L2">
-        <v>1.01062775598674</v>
+        <v>1.01134469232404</v>
       </c>
       <c r="M2">
-        <v>1.033116351465169</v>
+        <v>1.033480208493297</v>
       </c>
       <c r="N2">
-        <v>1.008683890188004</v>
+        <v>1.011202938620618</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.034781738279159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.035069708970853</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.018571829111304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9952151674436653</v>
+        <v>0.9958968306007525</v>
       </c>
       <c r="D3">
-        <v>1.014473239979045</v>
+        <v>1.015039435906862</v>
       </c>
       <c r="E3">
-        <v>1.002061077590509</v>
+        <v>1.002650062272225</v>
       </c>
       <c r="F3">
-        <v>1.02470078168001</v>
+        <v>1.024993395454112</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.044475923284322</v>
+        <v>1.044763875861541</v>
       </c>
       <c r="J3">
-        <v>1.015837127202135</v>
+        <v>1.01649998059601</v>
       </c>
       <c r="K3">
-        <v>1.024924222615927</v>
+        <v>1.02548343388654</v>
       </c>
       <c r="L3">
-        <v>1.012667654297808</v>
+        <v>1.013249146983823</v>
       </c>
       <c r="M3">
-        <v>1.035027073032438</v>
+        <v>1.035316164790745</v>
       </c>
       <c r="N3">
-        <v>1.009321592841699</v>
+        <v>1.011669567859099</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.036293956795555</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.036522754847742</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.018875575454626</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9975803181475932</v>
+        <v>0.9981613447615436</v>
       </c>
       <c r="D4">
-        <v>1.016118584528723</v>
+        <v>1.016546536454535</v>
       </c>
       <c r="E4">
-        <v>1.003911425103456</v>
+        <v>1.00441358423023</v>
       </c>
       <c r="F4">
-        <v>1.026450968582583</v>
+        <v>1.026695773817976</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.045015275655991</v>
+        <v>1.045234348063071</v>
       </c>
       <c r="J4">
-        <v>1.017046122814336</v>
+        <v>1.017612200754929</v>
       </c>
       <c r="K4">
-        <v>1.026026288200458</v>
+        <v>1.02644927831657</v>
       </c>
       <c r="L4">
-        <v>1.013962870792979</v>
+        <v>1.014459031453343</v>
       </c>
       <c r="M4">
-        <v>1.036240300445525</v>
+        <v>1.036482336711194</v>
       </c>
       <c r="N4">
-        <v>1.009725544639963</v>
+        <v>1.011965293680269</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.037254149945971</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.037445706264166</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.019064574517831</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9985642105483604</v>
+        <v>0.9991036433295206</v>
       </c>
       <c r="D5">
-        <v>1.016803005448008</v>
+        <v>1.017173653647991</v>
       </c>
       <c r="E5">
-        <v>1.004682551028687</v>
+        <v>1.005148789591086</v>
       </c>
       <c r="F5">
-        <v>1.027180499305653</v>
+        <v>1.027405533449589</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.045236177952704</v>
+        <v>1.045426672038131</v>
       </c>
       <c r="J5">
-        <v>1.017548368480171</v>
+        <v>1.0180743370764</v>
       </c>
       <c r="K5">
-        <v>1.026483151820919</v>
+        <v>1.026849616670839</v>
       </c>
       <c r="L5">
-        <v>1.014501597885352</v>
+        <v>1.014962416781197</v>
       </c>
       <c r="M5">
-        <v>1.036744921806472</v>
+        <v>1.03696747832328</v>
       </c>
       <c r="N5">
-        <v>1.009893332046428</v>
+        <v>1.012088159284572</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.0376535256165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.037829664855038</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.019142248440817</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9987288083119834</v>
+        <v>0.999261298185686</v>
       </c>
       <c r="D6">
-        <v>1.016917500336545</v>
+        <v>1.017278573853765</v>
       </c>
       <c r="E6">
-        <v>1.004811635253044</v>
+        <v>1.005271875961324</v>
       </c>
       <c r="F6">
-        <v>1.02730262880238</v>
+        <v>1.027524362048083</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.045272927969766</v>
+        <v>1.045458645434465</v>
       </c>
       <c r="J6">
-        <v>1.017632348872259</v>
+        <v>1.018151616033189</v>
       </c>
       <c r="K6">
-        <v>1.026559486828017</v>
+        <v>1.026916503631537</v>
       </c>
       <c r="L6">
-        <v>1.014591717428518</v>
+        <v>1.015046632882392</v>
       </c>
       <c r="M6">
-        <v>1.036829335546953</v>
+        <v>1.037048638658653</v>
       </c>
       <c r="N6">
-        <v>1.009921386296628</v>
+        <v>1.012108704345789</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.03772033369439</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.03789389805508</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.019155186486369</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9975935054962889</v>
+        <v>0.9981815622168554</v>
       </c>
       <c r="D7">
-        <v>1.01612775819522</v>
+        <v>1.016560451648573</v>
       </c>
       <c r="E7">
-        <v>1.003921755249667</v>
+        <v>1.00443017876324</v>
       </c>
       <c r="F7">
-        <v>1.026460740952996</v>
+        <v>1.026708542630868</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.045018250219455</v>
+        <v>1.045239783161695</v>
       </c>
       <c r="J7">
-        <v>1.017052857304559</v>
+        <v>1.017625790709447</v>
       </c>
       <c r="K7">
-        <v>1.026032417996175</v>
+        <v>1.026460096484815</v>
       </c>
       <c r="L7">
-        <v>1.013970091828462</v>
+        <v>1.01447244428656</v>
       </c>
       <c r="M7">
-        <v>1.036247064359681</v>
+        <v>1.036492064186589</v>
       </c>
       <c r="N7">
-        <v>1.00972779455679</v>
+        <v>1.011994832071713</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.037259503154748</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.037453404941495</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.019067158309733</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9927588932119581</v>
+        <v>0.9935693873981918</v>
       </c>
       <c r="D8">
-        <v>1.012764529547535</v>
+        <v>1.013491987489092</v>
       </c>
       <c r="E8">
-        <v>1.000144339907731</v>
+        <v>1.000844972454933</v>
       </c>
       <c r="F8">
-        <v>1.022888344310658</v>
+        <v>1.023241092078591</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.0439039655766</v>
+        <v>1.044272469087881</v>
       </c>
       <c r="J8">
-        <v>1.01457925024023</v>
+        <v>1.015365786895755</v>
       </c>
       <c r="K8">
-        <v>1.023774329185839</v>
+        <v>1.024492250750593</v>
       </c>
       <c r="L8">
-        <v>1.011322356372295</v>
+        <v>1.012013510204254</v>
       </c>
       <c r="M8">
-        <v>1.033766953028833</v>
+        <v>1.03411518815769</v>
       </c>
       <c r="N8">
-        <v>1.008901230766273</v>
+        <v>1.011446771756476</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.035296649735394</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.035572256446296</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.018680792872314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9838819572409753</v>
+        <v>0.9850857047299572</v>
       </c>
       <c r="D9">
-        <v>1.006592235417441</v>
+        <v>1.00784993120176</v>
       </c>
       <c r="E9">
-        <v>0.9932572843294282</v>
+        <v>0.9942955335900031</v>
       </c>
       <c r="F9">
-        <v>1.016381083019157</v>
+        <v>1.016920083130084</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.041747667792598</v>
+        <v>1.042379315698807</v>
       </c>
       <c r="J9">
-        <v>1.010017011692516</v>
+        <v>1.01117634553472</v>
       </c>
       <c r="K9">
-        <v>1.019579256031857</v>
+        <v>1.020816919801707</v>
       </c>
       <c r="L9">
-        <v>1.006460712951781</v>
+        <v>1.007481844801719</v>
       </c>
       <c r="M9">
-        <v>1.029213863993825</v>
+        <v>1.029744481485282</v>
       </c>
       <c r="N9">
-        <v>1.007376079556386</v>
+        <v>1.010342038378779</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.031693149557067</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.032113102812971</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.01793605837978</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9777515493741904</v>
+        <v>0.9792672047131518</v>
       </c>
       <c r="D10">
-        <v>1.00233906740772</v>
+        <v>1.003991679838991</v>
       </c>
       <c r="E10">
-        <v>0.9885423517425507</v>
+        <v>0.9898479089047896</v>
       </c>
       <c r="F10">
-        <v>1.012103227463771</v>
+        <v>1.012788206825267</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.04021100182767</v>
+        <v>1.041038493044842</v>
       </c>
       <c r="J10">
-        <v>1.006876565574978</v>
+        <v>1.008328259019837</v>
       </c>
       <c r="K10">
-        <v>1.016666217308772</v>
+        <v>1.01828923535496</v>
       </c>
       <c r="L10">
-        <v>1.003121605643603</v>
+        <v>1.004402914096544</v>
       </c>
       <c r="M10">
-        <v>1.02625733969945</v>
+        <v>1.026930342259737</v>
       </c>
       <c r="N10">
-        <v>1.006330066330786</v>
+        <v>1.009704763836194</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.029405236814579</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.029937847453977</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.017414594266861</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9754054660488111</v>
+        <v>0.9770848461647605</v>
       </c>
       <c r="D11">
-        <v>1.000735841059295</v>
+        <v>1.002569555554422</v>
       </c>
       <c r="E11">
-        <v>0.9867943756458543</v>
+        <v>0.9882396095464961</v>
       </c>
       <c r="F11">
-        <v>1.011879300862929</v>
+        <v>1.012637774088661</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.039782909008981</v>
+        <v>1.04070092878651</v>
       </c>
       <c r="J11">
-        <v>1.005838448418602</v>
+        <v>1.007443002108497</v>
       </c>
       <c r="K11">
-        <v>1.015643893824726</v>
+        <v>1.017443175967425</v>
       </c>
       <c r="L11">
-        <v>1.001969702912074</v>
+        <v>1.003386770555452</v>
       </c>
       <c r="M11">
-        <v>1.026580615066525</v>
+        <v>1.027325232029341</v>
       </c>
       <c r="N11">
-        <v>1.006019962208701</v>
+        <v>1.009724454620846</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.030101542355298</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.030690525806772</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.017259426275546</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9746294399603862</v>
+        <v>0.9763672751445187</v>
       </c>
       <c r="D12">
-        <v>1.000202953437563</v>
+        <v>1.002099893614233</v>
       </c>
       <c r="E12">
-        <v>0.9862349723385496</v>
+        <v>0.9877291155922275</v>
       </c>
       <c r="F12">
-        <v>1.012348053333213</v>
+        <v>1.013132321395017</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.039695612844951</v>
+        <v>1.040645285350744</v>
       </c>
       <c r="J12">
-        <v>1.005547737951973</v>
+        <v>1.007206618993658</v>
       </c>
       <c r="K12">
-        <v>1.015326266212544</v>
+        <v>1.017186973253577</v>
       </c>
       <c r="L12">
-        <v>1.001630726991821</v>
+        <v>1.003095243818483</v>
       </c>
       <c r="M12">
-        <v>1.0272424470626</v>
+        <v>1.028012178672114</v>
       </c>
       <c r="N12">
-        <v>1.0059520807766</v>
+        <v>1.009783942865259</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.030954104617572</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.031562744049083</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.01721812543242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9750131095905634</v>
+        <v>0.9767215898892678</v>
       </c>
       <c r="D13">
-        <v>1.000461507281898</v>
+        <v>1.002327269877442</v>
       </c>
       <c r="E13">
-        <v>0.9865528938835009</v>
+        <v>0.9880203153307859</v>
       </c>
       <c r="F13">
-        <v>1.013403180377082</v>
+        <v>1.01417388097836</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.039872830582881</v>
+        <v>1.040807016031968</v>
       </c>
       <c r="J13">
-        <v>1.005817295945637</v>
+        <v>1.007448525428388</v>
       </c>
       <c r="K13">
-        <v>1.015535866665923</v>
+        <v>1.017366133927901</v>
       </c>
       <c r="L13">
-        <v>1.001897417640904</v>
+        <v>1.003335864189975</v>
       </c>
       <c r="M13">
-        <v>1.028234836716679</v>
+        <v>1.028991338516398</v>
       </c>
       <c r="N13">
-        <v>1.006067487431636</v>
+        <v>1.009843184170877</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.032017313544309</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.032615339811539</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.017262676077434</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9758016703365585</v>
+        <v>0.9774511120751881</v>
       </c>
       <c r="D14">
-        <v>1.000996352961368</v>
+        <v>1.002798764025953</v>
       </c>
       <c r="E14">
-        <v>0.9871681270460998</v>
+        <v>0.9885838842924731</v>
       </c>
       <c r="F14">
-        <v>1.014393045132103</v>
+        <v>1.015137141397087</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.040112267051147</v>
+        <v>1.0410148891285</v>
       </c>
       <c r="J14">
-        <v>1.00625411527492</v>
+        <v>1.007830041040283</v>
       </c>
       <c r="K14">
-        <v>1.01591644818342</v>
+        <v>1.017684991914708</v>
       </c>
       <c r="L14">
-        <v>1.002353452468931</v>
+        <v>1.003741607903458</v>
       </c>
       <c r="M14">
-        <v>1.02906515991059</v>
+        <v>1.029795732125072</v>
       </c>
       <c r="N14">
-        <v>1.006229244629185</v>
+        <v>1.009884404354407</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.03284794569655</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.03342539564529</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.017331780967257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9762524410396581</v>
+        <v>0.9778686059899053</v>
       </c>
       <c r="D15">
-        <v>1.001305514851357</v>
+        <v>1.003071739516607</v>
       </c>
       <c r="E15">
-        <v>0.9875150547966827</v>
+        <v>0.988902030208593</v>
       </c>
       <c r="F15">
-        <v>1.014794414719932</v>
+        <v>1.015523504395892</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.040234210716873</v>
+        <v>1.041118803628645</v>
       </c>
       <c r="J15">
-        <v>1.006490341562707</v>
+        <v>1.008035106192473</v>
       </c>
       <c r="K15">
-        <v>1.016131062056376</v>
+        <v>1.017864352020067</v>
       </c>
       <c r="L15">
-        <v>1.002603061940533</v>
+        <v>1.003963206670079</v>
       </c>
       <c r="M15">
-        <v>1.029372212323083</v>
+        <v>1.030088154543825</v>
       </c>
       <c r="N15">
-        <v>1.006311327236121</v>
+        <v>1.009899390769448</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.033128357073217</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.033694228389232</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.017369441911755</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.97877247196294</v>
+        <v>0.9802117035669262</v>
       </c>
       <c r="D16">
-        <v>1.003057909965562</v>
+        <v>1.00462607985327</v>
       </c>
       <c r="E16">
-        <v>0.9894416708752704</v>
+        <v>0.9906768020124237</v>
       </c>
       <c r="F16">
-        <v>1.016453855603859</v>
+        <v>1.017102481002639</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I16">
-        <v>1.040870753585688</v>
+        <v>1.041656728370185</v>
       </c>
       <c r="J16">
-        <v>1.007774799592975</v>
+        <v>1.009153662887404</v>
       </c>
       <c r="K16">
-        <v>1.017335655415374</v>
+        <v>1.018875874562773</v>
       </c>
       <c r="L16">
-        <v>1.003966965366058</v>
+        <v>1.005179275540232</v>
       </c>
       <c r="M16">
-        <v>1.030496427883529</v>
+        <v>1.031133869631648</v>
       </c>
       <c r="N16">
-        <v>1.006734138506624</v>
+        <v>1.009985421203876</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.033978023297339</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.034481863353957</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.017578767295408</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9802968642873149</v>
+        <v>0.9816393176634689</v>
       </c>
       <c r="D17">
-        <v>1.004125706763021</v>
+        <v>1.005580688171167</v>
       </c>
       <c r="E17">
-        <v>0.9906027014200337</v>
+        <v>0.9917551849490481</v>
       </c>
       <c r="F17">
-        <v>1.017206246982831</v>
+        <v>1.017810390038753</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.041232154530366</v>
+        <v>1.041961804915827</v>
       </c>
       <c r="J17">
-        <v>1.008533843654053</v>
+        <v>1.009821825011733</v>
       </c>
       <c r="K17">
-        <v>1.018061782040258</v>
+        <v>1.019491570173642</v>
       </c>
       <c r="L17">
-        <v>1.004777530305177</v>
+        <v>1.005909336650722</v>
       </c>
       <c r="M17">
-        <v>1.030919167489251</v>
+        <v>1.03151318245071</v>
       </c>
       <c r="N17">
-        <v>1.006974491461225</v>
+        <v>1.01005930072676</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.034182451979996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.034652014223267</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.017704068088221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9810912159042495</v>
+        <v>0.9823879044328248</v>
       </c>
       <c r="D18">
-        <v>1.004686036982451</v>
+        <v>1.006084994614035</v>
       </c>
       <c r="E18">
-        <v>0.9911950090656787</v>
+        <v>0.9923089606441908</v>
       </c>
       <c r="F18">
-        <v>1.017139190272828</v>
+        <v>1.017722043130803</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.041374360348619</v>
+        <v>1.042076100978472</v>
       </c>
       <c r="J18">
-        <v>1.008888111138737</v>
+        <v>1.010133193996726</v>
       </c>
       <c r="K18">
-        <v>1.0184243706122</v>
+        <v>1.019799513312504</v>
       </c>
       <c r="L18">
-        <v>1.005167478920105</v>
+        <v>1.006261785321105</v>
       </c>
       <c r="M18">
-        <v>1.030668494713666</v>
+        <v>1.031241725489329</v>
       </c>
       <c r="N18">
-        <v>1.007071488435459</v>
+        <v>1.010085662338818</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.0337451343209</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.034198362350223</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.017761949521489</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9811881354725797</v>
+        <v>0.9824831285335095</v>
       </c>
       <c r="D19">
-        <v>1.004751398527982</v>
+        <v>1.006146591752811</v>
       </c>
       <c r="E19">
-        <v>0.9912401853112844</v>
+        <v>0.9923537400026561</v>
       </c>
       <c r="F19">
-        <v>1.016260000734058</v>
+        <v>1.016842109482199</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.041295911275491</v>
+        <v>1.041995648274094</v>
       </c>
       <c r="J19">
-        <v>1.008842258838682</v>
+        <v>1.010086030853508</v>
       </c>
       <c r="K19">
-        <v>1.018424511525631</v>
+        <v>1.019796085076568</v>
       </c>
       <c r="L19">
-        <v>1.00514649165101</v>
+        <v>1.006240516164118</v>
       </c>
       <c r="M19">
-        <v>1.029740775290028</v>
+        <v>1.030313304287726</v>
       </c>
       <c r="N19">
-        <v>1.007028840860898</v>
+        <v>1.010041911785251</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.032683634587471</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.033136457774118</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.017750050406412</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.979341764624278</v>
+        <v>0.9807548546855939</v>
       </c>
       <c r="D20">
-        <v>1.003441967765919</v>
+        <v>1.004976392454604</v>
       </c>
       <c r="E20">
-        <v>0.9897629514133098</v>
+        <v>0.9909800123982542</v>
       </c>
       <c r="F20">
-        <v>1.013218303095865</v>
+        <v>1.013856013167771</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.040615661591756</v>
+        <v>1.041384308790049</v>
       </c>
       <c r="J20">
-        <v>1.007692927620776</v>
+        <v>1.009048346373625</v>
       </c>
       <c r="K20">
-        <v>1.017424563128488</v>
+        <v>1.018932298788528</v>
       </c>
       <c r="L20">
-        <v>1.003988227527643</v>
+        <v>1.005183343627971</v>
       </c>
       <c r="M20">
-        <v>1.027032639580666</v>
+        <v>1.027659519660196</v>
       </c>
       <c r="N20">
-        <v>1.006602173396071</v>
+        <v>1.009797070195127</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.030008146110729</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.030504261739666</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.017547240525224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9746612247637101</v>
+        <v>0.9764201004994446</v>
       </c>
       <c r="D21">
-        <v>1.000191689801674</v>
+        <v>1.002106463712021</v>
       </c>
       <c r="E21">
-        <v>0.9861667039918135</v>
+        <v>0.9876834867208119</v>
       </c>
       <c r="F21">
-        <v>1.009690816139736</v>
+        <v>1.010487210790623</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.039383165887252</v>
+        <v>1.040341541760152</v>
       </c>
       <c r="J21">
-        <v>1.00525792546557</v>
+        <v>1.00693787450613</v>
       </c>
       <c r="K21">
-        <v>1.01516943147108</v>
+        <v>1.017048038085645</v>
       </c>
       <c r="L21">
-        <v>1.001414978781169</v>
+        <v>1.002902017534765</v>
       </c>
       <c r="M21">
-        <v>1.024490889863074</v>
+        <v>1.02527258683434</v>
       </c>
       <c r="N21">
-        <v>1.005784536620978</v>
+        <v>1.009651854761192</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.027955175728055</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.028573847210288</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.017155313078378</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9716813639936075</v>
+        <v>0.9736599319548512</v>
       </c>
       <c r="D22">
-        <v>0.9981267259781628</v>
+        <v>1.00028313651589</v>
       </c>
       <c r="E22">
-        <v>0.9838884706006289</v>
+        <v>0.9855953298135371</v>
       </c>
       <c r="F22">
-        <v>1.007543441257114</v>
+        <v>1.008440818651928</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.03859625228664</v>
+        <v>1.039675011668385</v>
       </c>
       <c r="J22">
-        <v>1.003716848115132</v>
+        <v>1.005601386581728</v>
       </c>
       <c r="K22">
-        <v>1.013735384358548</v>
+        <v>1.015848986502561</v>
       </c>
       <c r="L22">
-        <v>0.9997860023294797</v>
+        <v>1.001457650777356</v>
       </c>
       <c r="M22">
-        <v>1.022966927784943</v>
+        <v>1.023846895536322</v>
       </c>
       <c r="N22">
-        <v>1.005269092143698</v>
+        <v>1.009554792363708</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.02674903938233</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.027445488130639</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.016904410580201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9732670276850944</v>
+        <v>0.975116444995612</v>
       </c>
       <c r="D23">
-        <v>0.9992253042297362</v>
+        <v>1.001244190926112</v>
       </c>
       <c r="E23">
-        <v>0.9850999885279597</v>
+        <v>0.9866947664788517</v>
       </c>
       <c r="F23">
-        <v>1.008685228797052</v>
+        <v>1.009523492735845</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.039016258217603</v>
+        <v>1.040026371561482</v>
       </c>
       <c r="J23">
-        <v>1.004537049010971</v>
+        <v>1.006301189850102</v>
       </c>
       <c r="K23">
-        <v>1.014498955896992</v>
+        <v>1.016478799332931</v>
       </c>
       <c r="L23">
-        <v>1.000652703607494</v>
+        <v>1.002215448242362</v>
       </c>
       <c r="M23">
-        <v>1.023777698806942</v>
+        <v>1.024600121858632</v>
       </c>
       <c r="N23">
-        <v>1.005543428031267</v>
+        <v>1.009564298529767</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.027390722540692</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.028041627063017</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.017035795255597</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.979379784689031</v>
+        <v>0.9807913915695069</v>
       </c>
       <c r="D24">
-        <v>1.003465247682683</v>
+        <v>1.004997848836945</v>
       </c>
       <c r="E24">
-        <v>0.9897873654360445</v>
+        <v>0.9910032974647108</v>
       </c>
       <c r="F24">
-        <v>1.013105799407735</v>
+        <v>1.013742945348495</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.040607320302486</v>
+        <v>1.041375032591111</v>
       </c>
       <c r="J24">
-        <v>1.007695367962263</v>
+        <v>1.009049451647562</v>
       </c>
       <c r="K24">
-        <v>1.017431781745547</v>
+        <v>1.018937761454835</v>
       </c>
       <c r="L24">
-        <v>1.003996231855928</v>
+        <v>1.005190269079377</v>
       </c>
       <c r="M24">
-        <v>1.026906606189999</v>
+        <v>1.027532942510725</v>
       </c>
       <c r="N24">
-        <v>1.006599724546009</v>
+        <v>1.009791055161726</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.02986708463393</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.03036279511665</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.017546247049605</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9862213872691005</v>
+        <v>0.9873109831551324</v>
       </c>
       <c r="D25">
-        <v>1.008218180539413</v>
+        <v>1.009328513107997</v>
       </c>
       <c r="E25">
-        <v>0.9950663614784114</v>
+        <v>0.9960065239733159</v>
       </c>
       <c r="F25">
-        <v>1.0180895903226</v>
+        <v>1.018574949637332</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.042328488388202</v>
+        <v>1.042886983865136</v>
       </c>
       <c r="J25">
-        <v>1.011221523773018</v>
+        <v>1.012273061524745</v>
       </c>
       <c r="K25">
-        <v>1.020690245472675</v>
+        <v>1.021783721555178</v>
       </c>
       <c r="L25">
-        <v>1.00774175169983</v>
+        <v>1.008667151464526</v>
       </c>
       <c r="M25">
-        <v>1.030413432040338</v>
+        <v>1.030891597667745</v>
       </c>
       <c r="N25">
-        <v>1.007778813809824</v>
+        <v>1.010600758438323</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.032642538380776</v>
+        <v>1.033020978497796</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.01813388577445</v>
       </c>
     </row>
   </sheetData>
